--- a/biology/Zoologie/Austrochilidae/Austrochilidae.xlsx
+++ b/biology/Zoologie/Austrochilidae/Austrochilidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Austrochilidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Austrochilidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent au Chili et en Argentine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent au Chili et en Argentine.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille n'est pas connue à l'état fossile[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille n'est pas connue à l'état fossile.
 </t>
         </is>
       </c>
@@ -599,9 +617,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 06/04/2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 06/04/2022) :
 Austrochilus Gertsch &amp; Zapfe, 1955
 Thaida Karsch, 1880</t>
         </is>
@@ -631,11 +651,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite par Zapfe en 1955 comme une sous-famille des Hypochilidae. Elle est élevée au rang de famille par Marples en 1968[4].
-Les Hickmaniinae Lehtinen 1967 ont été placées dans les Gradungulidae par Kulkarni et Hormiga en 2021[5].
-Cette famille rassemble neuf espèces dans deux genres[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite par Zapfe en 1955 comme une sous-famille des Hypochilidae. Elle est élevée au rang de famille par Marples en 1968.
+Les Hickmaniinae Lehtinen 1967 ont été placées dans les Gradungulidae par Kulkarni et Hormiga en 2021.
+Cette famille rassemble neuf espèces dans deux genres.
 </t>
         </is>
       </c>
@@ -664,7 +686,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Zapfe, 1955 : « Filogenia y función en Austrochilus manni Gertsch y Zapfe (Araneae-Hypochilidae). » Trabajos del Laboratorio de Zoología, Facultad de Filosofía y Educación, Universidad de Chile, no 2, p. 1-53.</t>
         </is>
